--- a/Copia de Requisitos.xlsx
+++ b/Copia de Requisitos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\Entrega_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\Desktop\U\IngeSoft\Proyecto\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC9A615-FC59-4A95-87D3-DB0CA759D646}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262B9882-3740-4CCA-BD93-10D538F894CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -415,7 +415,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,12 +446,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -465,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -492,7 +486,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +722,8 @@
   </sheetPr>
   <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -744,16 +739,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -782,10 +777,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
@@ -3923,7 +3918,7 @@
       </c>
     </row>
     <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="26">
+      <c r="A93" s="12">
         <f t="shared" si="4"/>
         <v>87</v>
       </c>
@@ -3939,12 +3934,27 @@
       <c r="E93" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G93" s="15"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="15"/>
-      <c r="M93" s="16"/>
+      <c r="G93" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H93" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I93" s="16">
+        <v>0</v>
+      </c>
+      <c r="J93" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K93" s="25">
+        <v>0</v>
+      </c>
+      <c r="L93" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="M93" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12">
@@ -4069,11 +4079,11 @@
       </c>
       <c r="I98">
         <f>AVERAGE(I3:I97)</f>
-        <v>9.2105263157894732E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K98" s="16">
         <f>AVERAGE(K3:K97)</f>
-        <v>6.5789473684210523E-2</v>
+        <v>6.4935064935064929E-2</v>
       </c>
       <c r="M98" s="16">
         <f>AVERAGE(M3:M97)</f>
